--- a/data/pca/factorExposure/factorExposure_2016-04-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01232451065143454</v>
+        <v>0.01590386060848663</v>
       </c>
       <c r="C2">
-        <v>-0.0511646015076164</v>
+        <v>0.03875899521403344</v>
       </c>
       <c r="D2">
-        <v>-0.04569450513658832</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06776449066179116</v>
+      </c>
+      <c r="E2">
+        <v>0.1016074864801801</v>
+      </c>
+      <c r="F2">
+        <v>0.07659187396707072</v>
+      </c>
+      <c r="G2">
+        <v>-0.01902702390432134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04212314984259013</v>
+        <v>0.02601618062661125</v>
       </c>
       <c r="C3">
-        <v>-0.1208115828536568</v>
+        <v>0.06589216408379407</v>
       </c>
       <c r="D3">
-        <v>-0.08885028944638629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07544414283977247</v>
+      </c>
+      <c r="E3">
+        <v>0.06736597097523649</v>
+      </c>
+      <c r="F3">
+        <v>-0.02784661022850171</v>
+      </c>
+      <c r="G3">
+        <v>-0.04468515150554132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06241700137863149</v>
+        <v>0.06045448669900755</v>
       </c>
       <c r="C4">
-        <v>-0.06552692022970412</v>
+        <v>0.06466211988546804</v>
       </c>
       <c r="D4">
-        <v>-0.03497730412337421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06247656259561458</v>
+      </c>
+      <c r="E4">
+        <v>0.09874175069959304</v>
+      </c>
+      <c r="F4">
+        <v>0.03507723170147112</v>
+      </c>
+      <c r="G4">
+        <v>-0.07727652747162668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0395439721377729</v>
+        <v>0.03711322832289236</v>
       </c>
       <c r="C6">
-        <v>-0.03733186632209409</v>
+        <v>0.02771967854192284</v>
       </c>
       <c r="D6">
-        <v>-0.03629232035992701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06744571678249335</v>
+      </c>
+      <c r="E6">
+        <v>0.09135666608832754</v>
+      </c>
+      <c r="F6">
+        <v>0.02668910930870956</v>
+      </c>
+      <c r="G6">
+        <v>-0.05776023163652364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0266521068268763</v>
+        <v>0.0211786934458457</v>
       </c>
       <c r="C7">
-        <v>-0.04089186894983676</v>
+        <v>0.0365102837005119</v>
       </c>
       <c r="D7">
-        <v>0.0004031341963025294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04300112047275111</v>
+      </c>
+      <c r="E7">
+        <v>0.07551503835465589</v>
+      </c>
+      <c r="F7">
+        <v>0.06340064663183669</v>
+      </c>
+      <c r="G7">
+        <v>-0.095073266008083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007756986510852873</v>
+        <v>0.007088188026743172</v>
       </c>
       <c r="C8">
-        <v>-0.04058117741806741</v>
+        <v>0.03489165936741636</v>
       </c>
       <c r="D8">
-        <v>-0.0292155938981973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03937458238781721</v>
+      </c>
+      <c r="E8">
+        <v>0.06001247969989909</v>
+      </c>
+      <c r="F8">
+        <v>0.01536333755778985</v>
+      </c>
+      <c r="G8">
+        <v>-0.03589857034639316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03946076926986591</v>
+        <v>0.04127761937126629</v>
       </c>
       <c r="C9">
-        <v>-0.04685059345401398</v>
+        <v>0.05074366025715654</v>
       </c>
       <c r="D9">
-        <v>-0.01773392561509403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04456990040397373</v>
+      </c>
+      <c r="E9">
+        <v>0.07639291302216548</v>
+      </c>
+      <c r="F9">
+        <v>0.05191860578948772</v>
+      </c>
+      <c r="G9">
+        <v>-0.07559615313923594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07257611561133212</v>
+        <v>0.09991771765985839</v>
       </c>
       <c r="C10">
-        <v>0.1937397779525576</v>
+        <v>-0.2022530305475511</v>
       </c>
       <c r="D10">
-        <v>0.004486980446159639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01239877969271239</v>
+      </c>
+      <c r="E10">
+        <v>0.03385434082185789</v>
+      </c>
+      <c r="F10">
+        <v>0.0177599969446495</v>
+      </c>
+      <c r="G10">
+        <v>-0.03905965892434836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04309030156788255</v>
+        <v>0.03765107396273676</v>
       </c>
       <c r="C11">
-        <v>-0.05152236066397001</v>
+        <v>0.04775941689101602</v>
       </c>
       <c r="D11">
-        <v>-0.01624711754256724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03302795147889358</v>
+      </c>
+      <c r="E11">
+        <v>0.03264749783392414</v>
+      </c>
+      <c r="F11">
+        <v>0.03634926728517419</v>
+      </c>
+      <c r="G11">
+        <v>-0.06696198405091544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04614368589386101</v>
+        <v>0.03999164099679597</v>
       </c>
       <c r="C12">
-        <v>-0.04584826496890132</v>
+        <v>0.0456353726897894</v>
       </c>
       <c r="D12">
-        <v>-0.004843122332909751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02861251798570428</v>
+      </c>
+      <c r="E12">
+        <v>0.04075901547185904</v>
+      </c>
+      <c r="F12">
+        <v>0.03733620158151047</v>
+      </c>
+      <c r="G12">
+        <v>-0.06212090733627089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01583757011831669</v>
+        <v>0.01426818976587136</v>
       </c>
       <c r="C13">
-        <v>-0.05335913473514077</v>
+        <v>0.04154404690572297</v>
       </c>
       <c r="D13">
-        <v>-0.01361623296408981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05192161678981617</v>
+      </c>
+      <c r="E13">
+        <v>0.1087507991580009</v>
+      </c>
+      <c r="F13">
+        <v>0.05545934009185295</v>
+      </c>
+      <c r="G13">
+        <v>-0.08919225100696214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01013526036291231</v>
+        <v>0.007190739986361875</v>
       </c>
       <c r="C14">
-        <v>-0.03679148015985869</v>
+        <v>0.03102598685166531</v>
       </c>
       <c r="D14">
-        <v>0.0007625764894734152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02877637581861603</v>
+      </c>
+      <c r="E14">
+        <v>0.0625859413607075</v>
+      </c>
+      <c r="F14">
+        <v>0.07208105190541021</v>
+      </c>
+      <c r="G14">
+        <v>-0.07612141775077429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001964614439102863</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005818037795668514</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.008804628024891568</v>
+      </c>
+      <c r="E15">
+        <v>0.005460682938893774</v>
+      </c>
+      <c r="F15">
+        <v>0.006182135852246859</v>
+      </c>
+      <c r="G15">
+        <v>-0.00774065088699538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04086202490082177</v>
+        <v>0.03586810319738078</v>
       </c>
       <c r="C16">
-        <v>-0.04809381116397416</v>
+        <v>0.04458703712936931</v>
       </c>
       <c r="D16">
-        <v>-0.007062414159829043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0277212501272684</v>
+      </c>
+      <c r="E16">
+        <v>0.04772503974181505</v>
+      </c>
+      <c r="F16">
+        <v>0.04778396211059352</v>
+      </c>
+      <c r="G16">
+        <v>-0.05311874679275116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02666438051851723</v>
+        <v>0.01877716429717029</v>
       </c>
       <c r="C19">
-        <v>-0.06035661207738831</v>
+        <v>0.04465604045881082</v>
       </c>
       <c r="D19">
-        <v>-0.09560580310008369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09630637191487472</v>
+      </c>
+      <c r="E19">
+        <v>0.1140632152041011</v>
+      </c>
+      <c r="F19">
+        <v>0.05800526958322246</v>
+      </c>
+      <c r="G19">
+        <v>-0.03495937965702599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01990847079443825</v>
+        <v>0.01596550126143874</v>
       </c>
       <c r="C20">
-        <v>-0.04927067524427035</v>
+        <v>0.04017494359517895</v>
       </c>
       <c r="D20">
-        <v>-0.01370676357409253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03890269173666291</v>
+      </c>
+      <c r="E20">
+        <v>0.08595905492562615</v>
+      </c>
+      <c r="F20">
+        <v>0.05048878493509233</v>
+      </c>
+      <c r="G20">
+        <v>-0.06001313862068831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01368765852841926</v>
+        <v>0.01264427455721147</v>
       </c>
       <c r="C21">
-        <v>-0.05654412766618151</v>
+        <v>0.04504946268611557</v>
       </c>
       <c r="D21">
-        <v>-0.03628482397530829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06390109828457735</v>
+      </c>
+      <c r="E21">
+        <v>0.1355178756337598</v>
+      </c>
+      <c r="F21">
+        <v>0.08291741312943952</v>
+      </c>
+      <c r="G21">
+        <v>-0.08838742292259852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.002493259291803802</v>
+        <v>0.00414486195637678</v>
       </c>
       <c r="C22">
-        <v>-0.001068040665359825</v>
+        <v>0.02857385782818933</v>
       </c>
       <c r="D22">
-        <v>-0.008897862131739811</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.05390433275232173</v>
+      </c>
+      <c r="E22">
+        <v>0.05776920918460609</v>
+      </c>
+      <c r="F22">
+        <v>-0.02512970456877562</v>
+      </c>
+      <c r="G22">
+        <v>-0.05590815811536267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.002499287113131245</v>
+        <v>0.004250325184509753</v>
       </c>
       <c r="C23">
-        <v>-0.001087965847244116</v>
+        <v>0.0286085789809515</v>
       </c>
       <c r="D23">
-        <v>-0.008886261052952179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0532377135755433</v>
+      </c>
+      <c r="E23">
+        <v>0.05810041176273665</v>
+      </c>
+      <c r="F23">
+        <v>-0.02527779715309914</v>
+      </c>
+      <c r="G23">
+        <v>-0.05598337872582438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0380204432255852</v>
+        <v>0.03677464192142802</v>
       </c>
       <c r="C24">
-        <v>-0.05008758266779386</v>
+        <v>0.05251101960096784</v>
       </c>
       <c r="D24">
-        <v>-0.01122607827689788</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02799554916513049</v>
+      </c>
+      <c r="E24">
+        <v>0.05050739086049689</v>
+      </c>
+      <c r="F24">
+        <v>0.04833488287261015</v>
+      </c>
+      <c r="G24">
+        <v>-0.0628831020310911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04935747488274355</v>
+        <v>0.04432161861999592</v>
       </c>
       <c r="C25">
-        <v>-0.05982496417752057</v>
+        <v>0.05566713846927657</v>
       </c>
       <c r="D25">
-        <v>0.001322448440496052</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02475599589067327</v>
+      </c>
+      <c r="E25">
+        <v>0.04096782877453131</v>
+      </c>
+      <c r="F25">
+        <v>0.04030402449554545</v>
+      </c>
+      <c r="G25">
+        <v>-0.07823098284272741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01860087116658014</v>
+        <v>0.01735923728427639</v>
       </c>
       <c r="C26">
-        <v>-0.01852329451863448</v>
+        <v>0.01737207078071044</v>
       </c>
       <c r="D26">
-        <v>-0.008580013353599116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02790715437017642</v>
+      </c>
+      <c r="E26">
+        <v>0.0565169276483305</v>
+      </c>
+      <c r="F26">
+        <v>0.05452249364490364</v>
+      </c>
+      <c r="G26">
+        <v>-0.04540370153971005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0890206934852463</v>
+        <v>0.1364241949187332</v>
       </c>
       <c r="C28">
-        <v>0.2525615026717631</v>
+        <v>-0.2581383878506044</v>
       </c>
       <c r="D28">
-        <v>0.008376028910564758</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02845901082541689</v>
+      </c>
+      <c r="E28">
+        <v>0.05536986472947079</v>
+      </c>
+      <c r="F28">
+        <v>0.03198611581599174</v>
+      </c>
+      <c r="G28">
+        <v>-0.05343311941429445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008170933476099528</v>
+        <v>0.007634585815846058</v>
       </c>
       <c r="C29">
-        <v>-0.03261219709765605</v>
+        <v>0.02918375695910952</v>
       </c>
       <c r="D29">
-        <v>0.006531700769486106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02098501761310548</v>
+      </c>
+      <c r="E29">
+        <v>0.06190003278217732</v>
+      </c>
+      <c r="F29">
+        <v>0.06267506961034716</v>
+      </c>
+      <c r="G29">
+        <v>-0.08135620478571393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04759578204516608</v>
+        <v>0.04505264707366343</v>
       </c>
       <c r="C30">
-        <v>-0.04759453886530766</v>
+        <v>0.05621748450421074</v>
       </c>
       <c r="D30">
-        <v>-0.08224122399422731</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1065278054055101</v>
+      </c>
+      <c r="E30">
+        <v>0.0853186171555706</v>
+      </c>
+      <c r="F30">
+        <v>0.05713306413890043</v>
+      </c>
+      <c r="G30">
+        <v>-0.05692122950236493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06197612147410336</v>
+        <v>0.05989831691191684</v>
       </c>
       <c r="C31">
-        <v>-0.04775332212327019</v>
+        <v>0.06250260633895183</v>
       </c>
       <c r="D31">
-        <v>0.04267180194328145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01380792004414341</v>
+      </c>
+      <c r="E31">
+        <v>0.07699120380194076</v>
+      </c>
+      <c r="F31">
+        <v>0.02004499670255996</v>
+      </c>
+      <c r="G31">
+        <v>-0.07609980121407706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003379370447107623</v>
+        <v>0.008758205818980021</v>
       </c>
       <c r="C32">
-        <v>-0.0413987719790103</v>
+        <v>0.03511570817485277</v>
       </c>
       <c r="D32">
-        <v>-0.06052655305620145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05692942428946309</v>
+      </c>
+      <c r="E32">
+        <v>0.06339673616375718</v>
+      </c>
+      <c r="F32">
+        <v>0.06016120210375957</v>
+      </c>
+      <c r="G32">
+        <v>-0.06150969915357307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03643943034161024</v>
+        <v>0.02960617543132845</v>
       </c>
       <c r="C33">
-        <v>-0.0565094785175851</v>
+        <v>0.05201975590920453</v>
       </c>
       <c r="D33">
-        <v>-0.04438134745470754</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07696035549493718</v>
+      </c>
+      <c r="E33">
+        <v>0.09488048990972286</v>
+      </c>
+      <c r="F33">
+        <v>0.06177604820157031</v>
+      </c>
+      <c r="G33">
+        <v>-0.09348271066613088</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0457535096896273</v>
+        <v>0.04131896348488096</v>
       </c>
       <c r="C34">
-        <v>-0.06505154887568691</v>
+        <v>0.06294240175639798</v>
       </c>
       <c r="D34">
-        <v>-0.02255982829221455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03851536319729023</v>
+      </c>
+      <c r="E34">
+        <v>0.02251053261094056</v>
+      </c>
+      <c r="F34">
+        <v>0.05070707357959389</v>
+      </c>
+      <c r="G34">
+        <v>-0.07048266248230972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01799904135722423</v>
+        <v>0.01553804225756393</v>
       </c>
       <c r="C36">
-        <v>-0.01643801330012811</v>
+        <v>0.01361525220966447</v>
       </c>
       <c r="D36">
-        <v>-6.556036765445121e-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02731910194908169</v>
+      </c>
+      <c r="E36">
+        <v>0.06658065327526418</v>
+      </c>
+      <c r="F36">
+        <v>0.04620290566195519</v>
+      </c>
+      <c r="G36">
+        <v>-0.0621906204020601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03054652141933208</v>
+        <v>0.02433823918089801</v>
       </c>
       <c r="C38">
-        <v>-0.03253637443799418</v>
+        <v>0.02455866708617339</v>
       </c>
       <c r="D38">
-        <v>0.009079611903564268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02284336624645576</v>
+      </c>
+      <c r="E38">
+        <v>0.05633256551810375</v>
+      </c>
+      <c r="F38">
+        <v>0.03802928680718033</v>
+      </c>
+      <c r="G38">
+        <v>-0.04132590913194818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04864549765094786</v>
+        <v>0.04232949518706546</v>
       </c>
       <c r="C39">
-        <v>-0.06090487121646575</v>
+        <v>0.06239993092674896</v>
       </c>
       <c r="D39">
-        <v>-0.02207761162153256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05280390736206764</v>
+      </c>
+      <c r="E39">
+        <v>0.0552371066753844</v>
+      </c>
+      <c r="F39">
+        <v>0.06974344334488643</v>
+      </c>
+      <c r="G39">
+        <v>-0.05952637261698639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0117318957146511</v>
+        <v>0.01488136896191817</v>
       </c>
       <c r="C40">
-        <v>-0.05284676758783904</v>
+        <v>0.0375952632644883</v>
       </c>
       <c r="D40">
-        <v>-0.01612623728859494</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03263957687764407</v>
+      </c>
+      <c r="E40">
+        <v>0.09723861988308902</v>
+      </c>
+      <c r="F40">
+        <v>0.03207692739117703</v>
+      </c>
+      <c r="G40">
+        <v>-0.0940648535088993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02419251630969568</v>
+        <v>0.02033112390147147</v>
       </c>
       <c r="C41">
-        <v>-0.01287052854684653</v>
+        <v>0.009718335665831745</v>
       </c>
       <c r="D41">
-        <v>-0.003312903818240941</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01945951418195001</v>
+      </c>
+      <c r="E41">
+        <v>0.06807967832757819</v>
+      </c>
+      <c r="F41">
+        <v>0.04049730699552797</v>
+      </c>
+      <c r="G41">
+        <v>-0.04884128043715173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04545137594542714</v>
+        <v>0.03227920618192587</v>
       </c>
       <c r="C43">
-        <v>-0.03415348351691464</v>
+        <v>0.0252269899387165</v>
       </c>
       <c r="D43">
-        <v>-0.02424446807814157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04777805867122001</v>
+      </c>
+      <c r="E43">
+        <v>0.08432044061785454</v>
+      </c>
+      <c r="F43">
+        <v>0.03300685146568</v>
+      </c>
+      <c r="G43">
+        <v>-0.0724195122377282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01755294373038492</v>
+        <v>0.0189042458340646</v>
       </c>
       <c r="C44">
-        <v>-0.07065700292106042</v>
+        <v>0.04776448978733219</v>
       </c>
       <c r="D44">
-        <v>-0.009790613591475102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03681012077081167</v>
+      </c>
+      <c r="E44">
+        <v>0.09183123203852873</v>
+      </c>
+      <c r="F44">
+        <v>0.05946581096164152</v>
+      </c>
+      <c r="G44">
+        <v>-0.04724348016065522</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01229530520901801</v>
+        <v>0.01278871189185145</v>
       </c>
       <c r="C46">
-        <v>-0.02877936230173548</v>
+        <v>0.03016430186678221</v>
       </c>
       <c r="D46">
-        <v>0.007838076471812821</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01814757295382853</v>
+      </c>
+      <c r="E46">
+        <v>0.07474535922200851</v>
+      </c>
+      <c r="F46">
+        <v>0.07169008434918407</v>
+      </c>
+      <c r="G46">
+        <v>-0.07749266413435139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09145851319544004</v>
+        <v>0.09356539592435184</v>
       </c>
       <c r="C47">
-        <v>-0.06797762280913446</v>
+        <v>0.07907345629845718</v>
       </c>
       <c r="D47">
-        <v>0.0441781277578776</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02225992968132464</v>
+      </c>
+      <c r="E47">
+        <v>0.06749221425410516</v>
+      </c>
+      <c r="F47">
+        <v>0.02296177319877784</v>
+      </c>
+      <c r="G47">
+        <v>-0.07749987047935721</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0204669209705821</v>
+        <v>0.01893715286339025</v>
       </c>
       <c r="C48">
-        <v>-0.01347733720154391</v>
+        <v>0.01606456344562235</v>
       </c>
       <c r="D48">
-        <v>0.01397176334592242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01451187351860241</v>
+      </c>
+      <c r="E48">
+        <v>0.07974817337581071</v>
+      </c>
+      <c r="F48">
+        <v>0.06087327208349923</v>
+      </c>
+      <c r="G48">
+        <v>-0.06679137554804609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0847990975263993</v>
+        <v>0.07261508357576849</v>
       </c>
       <c r="C50">
-        <v>-0.08318553409551532</v>
+        <v>0.07523604114899474</v>
       </c>
       <c r="D50">
-        <v>0.04204498623533882</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.00532298964426896</v>
+      </c>
+      <c r="E50">
+        <v>0.08239456992974971</v>
+      </c>
+      <c r="F50">
+        <v>-0.006363270109780168</v>
+      </c>
+      <c r="G50">
+        <v>-0.08833142549782022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01795638202730207</v>
+        <v>0.01236539321479498</v>
       </c>
       <c r="C51">
-        <v>-0.0487218547337221</v>
+        <v>0.03097164745592303</v>
       </c>
       <c r="D51">
-        <v>-0.04633316099500017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0584933937394062</v>
+      </c>
+      <c r="E51">
+        <v>0.05628779288331835</v>
+      </c>
+      <c r="F51">
+        <v>0.06452271440952048</v>
+      </c>
+      <c r="G51">
+        <v>-0.05583002200550294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08462287998506514</v>
+        <v>0.09809851153652839</v>
       </c>
       <c r="C53">
-        <v>-0.07719484214157424</v>
+        <v>0.08489856515614208</v>
       </c>
       <c r="D53">
-        <v>0.06485736327213505</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.06006407924778496</v>
+      </c>
+      <c r="E53">
+        <v>0.07143076880469047</v>
+      </c>
+      <c r="F53">
+        <v>0.02650466480354968</v>
+      </c>
+      <c r="G53">
+        <v>-0.06991289703906664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03762633247381138</v>
+        <v>0.03103217467012753</v>
       </c>
       <c r="C54">
-        <v>-0.03478007457348634</v>
+        <v>0.031559258503734</v>
       </c>
       <c r="D54">
-        <v>-0.001302042948154471</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02863437971801448</v>
+      </c>
+      <c r="E54">
+        <v>0.06642628919585306</v>
+      </c>
+      <c r="F54">
+        <v>0.06597727146153877</v>
+      </c>
+      <c r="G54">
+        <v>-0.08134846953334826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08089212176467175</v>
+        <v>0.09109338640120784</v>
       </c>
       <c r="C55">
-        <v>-0.05251153672860132</v>
+        <v>0.06639104730268135</v>
       </c>
       <c r="D55">
-        <v>0.07125048234237738</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06024587211666569</v>
+      </c>
+      <c r="E55">
+        <v>0.04616399327228211</v>
+      </c>
+      <c r="F55">
+        <v>0.004827274925321057</v>
+      </c>
+      <c r="G55">
+        <v>-0.05359766396992614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1530049459216226</v>
+        <v>0.1554419267149367</v>
       </c>
       <c r="C56">
-        <v>-0.08094255621601237</v>
+        <v>0.09941000311963383</v>
       </c>
       <c r="D56">
-        <v>0.06309278766651925</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05510170893407518</v>
+      </c>
+      <c r="E56">
+        <v>0.03699741986301254</v>
+      </c>
+      <c r="F56">
+        <v>-0.009953265020963319</v>
+      </c>
+      <c r="G56">
+        <v>-0.02691582445013203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05107767722732474</v>
+        <v>0.03338097695851761</v>
       </c>
       <c r="C58">
-        <v>-0.0009449712943009293</v>
+        <v>0.01480806141301877</v>
       </c>
       <c r="D58">
-        <v>-0.5403964308076907</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4020989617505196</v>
+      </c>
+      <c r="E58">
+        <v>0.559403003969032</v>
+      </c>
+      <c r="F58">
+        <v>-0.4223886853828286</v>
+      </c>
+      <c r="G58">
+        <v>0.5013616568248108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1238888891781921</v>
+        <v>0.139920731721785</v>
       </c>
       <c r="C59">
-        <v>0.2065638045678205</v>
+        <v>-0.1931036464836391</v>
       </c>
       <c r="D59">
-        <v>-0.02447217713317214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02984740483772349</v>
+      </c>
+      <c r="E59">
+        <v>0.02889608238245469</v>
+      </c>
+      <c r="F59">
+        <v>0.03199260563989989</v>
+      </c>
+      <c r="G59">
+        <v>0.006659853912800449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3012623386022161</v>
+        <v>0.2715318597092338</v>
       </c>
       <c r="C60">
-        <v>-0.1075658933494774</v>
+        <v>0.1028377845098655</v>
       </c>
       <c r="D60">
-        <v>-0.1931538441191519</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2434908899194196</v>
+      </c>
+      <c r="E60">
+        <v>-0.250864487526877</v>
+      </c>
+      <c r="F60">
+        <v>-0.08331600328924807</v>
+      </c>
+      <c r="G60">
+        <v>-0.05063500960972196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04712957327725376</v>
+        <v>0.04372623842433612</v>
       </c>
       <c r="C61">
-        <v>-0.05968661739852622</v>
+        <v>0.05780564182328861</v>
       </c>
       <c r="D61">
-        <v>-0.01759790527700904</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04414741498451423</v>
+      </c>
+      <c r="E61">
+        <v>0.05589591174450691</v>
+      </c>
+      <c r="F61">
+        <v>0.05329497472896728</v>
+      </c>
+      <c r="G61">
+        <v>-0.07354120902708364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01800646875844526</v>
+        <v>0.01766527558173878</v>
       </c>
       <c r="C63">
-        <v>-0.0336469456791741</v>
+        <v>0.03100229793549508</v>
       </c>
       <c r="D63">
-        <v>0.01402439851952423</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0190921577865264</v>
+      </c>
+      <c r="E63">
+        <v>0.06888651373698476</v>
+      </c>
+      <c r="F63">
+        <v>0.03644710127149969</v>
+      </c>
+      <c r="G63">
+        <v>-0.07067404873747715</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05297701626323766</v>
+        <v>0.05811472544854109</v>
       </c>
       <c r="C64">
-        <v>-0.04960128205910301</v>
+        <v>0.05900017689882556</v>
       </c>
       <c r="D64">
-        <v>-0.01323593629139558</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01205529213959705</v>
+      </c>
+      <c r="E64">
+        <v>0.04668972408304955</v>
+      </c>
+      <c r="F64">
+        <v>0.05027102815959313</v>
+      </c>
+      <c r="G64">
+        <v>-0.0521781275584721</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08022984033720615</v>
+        <v>0.06543907116580031</v>
       </c>
       <c r="C65">
-        <v>-0.02344543116995816</v>
+        <v>0.0249896077083122</v>
       </c>
       <c r="D65">
-        <v>-0.06035841962384754</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.09033413050951111</v>
+      </c>
+      <c r="E65">
+        <v>0.05158625871487432</v>
+      </c>
+      <c r="F65">
+        <v>0.002028213570414324</v>
+      </c>
+      <c r="G65">
+        <v>-0.02068794804899295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06221611448280984</v>
+        <v>0.05401704523605159</v>
       </c>
       <c r="C66">
-        <v>-0.08106614767065802</v>
+        <v>0.07823641832361529</v>
       </c>
       <c r="D66">
-        <v>-0.04169105411187909</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0766287487916615</v>
+      </c>
+      <c r="E66">
+        <v>0.06959267030896348</v>
+      </c>
+      <c r="F66">
+        <v>0.0603053848673015</v>
+      </c>
+      <c r="G66">
+        <v>-0.07163499447621496</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05106254153223642</v>
+        <v>0.04459122291517193</v>
       </c>
       <c r="C67">
-        <v>-0.03270222353696644</v>
+        <v>0.02897594959782912</v>
       </c>
       <c r="D67">
-        <v>0.01927611502281187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.004717700177970906</v>
+      </c>
+      <c r="E67">
+        <v>0.03257074954757364</v>
+      </c>
+      <c r="F67">
+        <v>0.02642943255383511</v>
+      </c>
+      <c r="G67">
+        <v>-0.03386643881106568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1233885962348295</v>
+        <v>0.1476306199140843</v>
       </c>
       <c r="C68">
-        <v>0.2805550896300961</v>
+        <v>-0.2441756228813713</v>
       </c>
       <c r="D68">
-        <v>0.0114499079645429</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0143601750714871</v>
+      </c>
+      <c r="E68">
+        <v>0.04135282912911201</v>
+      </c>
+      <c r="F68">
+        <v>0.006650215066215175</v>
+      </c>
+      <c r="G68">
+        <v>-0.02425440938482718</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0937761974409326</v>
+        <v>0.08918059714894459</v>
       </c>
       <c r="C69">
-        <v>-0.07261424197866757</v>
+        <v>0.09054243669239051</v>
       </c>
       <c r="D69">
-        <v>0.04780751160387384</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01221739548395995</v>
+      </c>
+      <c r="E69">
+        <v>0.06142065256522164</v>
+      </c>
+      <c r="F69">
+        <v>0.05274458526373971</v>
+      </c>
+      <c r="G69">
+        <v>-0.07343627671288372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1152726844577565</v>
+        <v>0.1423813119256257</v>
       </c>
       <c r="C71">
-        <v>0.2595999918825235</v>
+        <v>-0.243605889552469</v>
       </c>
       <c r="D71">
-        <v>-0.004593865149320859</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002579647667743044</v>
+      </c>
+      <c r="E71">
+        <v>0.05985471605319897</v>
+      </c>
+      <c r="F71">
+        <v>0.007078566124447992</v>
+      </c>
+      <c r="G71">
+        <v>-0.05909720248494917</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0989539512725376</v>
+        <v>0.1051077130051152</v>
       </c>
       <c r="C72">
-        <v>-0.04129423100035747</v>
+        <v>0.04805976207866921</v>
       </c>
       <c r="D72">
-        <v>-0.002999263128236579</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03644165124129114</v>
+      </c>
+      <c r="E72">
+        <v>0.01966793781364573</v>
+      </c>
+      <c r="F72">
+        <v>0.02768515031908154</v>
+      </c>
+      <c r="G72">
+        <v>-0.09842747385031629</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.386860268223358</v>
+        <v>0.3269586269268225</v>
       </c>
       <c r="C73">
-        <v>-0.03771292665282607</v>
+        <v>0.06347071383501789</v>
       </c>
       <c r="D73">
-        <v>-0.4665354787670217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4914713966923326</v>
+      </c>
+      <c r="E73">
+        <v>-0.4798318553359584</v>
+      </c>
+      <c r="F73">
+        <v>-0.236087261014981</v>
+      </c>
+      <c r="G73">
+        <v>-0.03943979129422366</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1068799551542637</v>
+        <v>0.1120229989650195</v>
       </c>
       <c r="C74">
-        <v>-0.09484381690374633</v>
+        <v>0.09303236461382393</v>
       </c>
       <c r="D74">
-        <v>0.04619045545722039</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04610153112256979</v>
+      </c>
+      <c r="E74">
+        <v>0.0561589123151166</v>
+      </c>
+      <c r="F74">
+        <v>-0.0046409354182998</v>
+      </c>
+      <c r="G74">
+        <v>-0.05252578453524138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2551824387588119</v>
+        <v>0.2592497168103771</v>
       </c>
       <c r="C75">
-        <v>-0.08821252535394167</v>
+        <v>0.1210460827165431</v>
       </c>
       <c r="D75">
-        <v>0.147708003322452</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1521333202606527</v>
+      </c>
+      <c r="E75">
+        <v>0.02272773156950556</v>
+      </c>
+      <c r="F75">
+        <v>-0.04162235158884984</v>
+      </c>
+      <c r="G75">
+        <v>0.03847620894279059</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1155040030183455</v>
+        <v>0.1291384633719158</v>
       </c>
       <c r="C76">
-        <v>-0.07948795350577983</v>
+        <v>0.09019798362238418</v>
       </c>
       <c r="D76">
-        <v>0.07573399237388678</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0776646954200927</v>
+      </c>
+      <c r="E76">
+        <v>0.07864530878370894</v>
+      </c>
+      <c r="F76">
+        <v>0.01721144261892007</v>
+      </c>
+      <c r="G76">
+        <v>-0.03685811033293027</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08592723685442941</v>
+        <v>0.06989174860973434</v>
       </c>
       <c r="C77">
-        <v>-0.04261995911317341</v>
+        <v>0.05795603737735025</v>
       </c>
       <c r="D77">
-        <v>-0.05717197942974549</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06414428963255354</v>
+      </c>
+      <c r="E77">
+        <v>0.093703134717825</v>
+      </c>
+      <c r="F77">
+        <v>0.1793960887586653</v>
+      </c>
+      <c r="G77">
+        <v>0.1110652195495416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05040320526952007</v>
+        <v>0.04877533910614919</v>
       </c>
       <c r="C78">
-        <v>-0.03764746503465757</v>
+        <v>0.05165276164726881</v>
       </c>
       <c r="D78">
-        <v>-0.03435382996221376</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06714600089527815</v>
+      </c>
+      <c r="E78">
+        <v>0.06395202228495146</v>
+      </c>
+      <c r="F78">
+        <v>0.05354038693430622</v>
+      </c>
+      <c r="G78">
+        <v>-0.0609392106852213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.0002699384671276885</v>
+        <v>0.03441322518714643</v>
       </c>
       <c r="C79">
-        <v>-0.0002278209964914391</v>
+        <v>0.04887368971344735</v>
       </c>
       <c r="D79">
-        <v>-0.003202899468331392</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08150041314530661</v>
+      </c>
+      <c r="E79">
+        <v>0.07251274292254897</v>
+      </c>
+      <c r="F79">
+        <v>-0.02591153872777406</v>
+      </c>
+      <c r="G79">
+        <v>-0.03002445972906537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04009749682220926</v>
+        <v>0.03078578935764435</v>
       </c>
       <c r="C80">
-        <v>-0.05301153018034092</v>
+        <v>0.05236180855518715</v>
       </c>
       <c r="D80">
-        <v>-0.03460400269934188</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04380694538302594</v>
+      </c>
+      <c r="E80">
+        <v>0.01354224340731846</v>
+      </c>
+      <c r="F80">
+        <v>0.05276414513235846</v>
+      </c>
+      <c r="G80">
+        <v>-0.0005130676672248299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1433133601902006</v>
+        <v>0.142357623844001</v>
       </c>
       <c r="C81">
-        <v>-0.07320927549957212</v>
+        <v>0.09123580427875298</v>
       </c>
       <c r="D81">
-        <v>0.1140188411246419</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1218211310186798</v>
+      </c>
+      <c r="E81">
+        <v>0.07030059203854126</v>
+      </c>
+      <c r="F81">
+        <v>-0.02145030204145191</v>
+      </c>
+      <c r="G81">
+        <v>0.01076004821142474</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2010237714984196</v>
+        <v>0.2317476871347436</v>
       </c>
       <c r="C82">
-        <v>-0.09191423782628312</v>
+        <v>0.1547609910043069</v>
       </c>
       <c r="D82">
-        <v>0.1986414905256661</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2475511197855865</v>
+      </c>
+      <c r="E82">
+        <v>-0.03954647538135457</v>
+      </c>
+      <c r="F82">
+        <v>0.03158926790039073</v>
+      </c>
+      <c r="G82">
+        <v>-0.05607959192839184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04428580760253408</v>
+        <v>0.02997471355743698</v>
       </c>
       <c r="C83">
-        <v>-0.03028626074833845</v>
+        <v>0.04498622728369131</v>
       </c>
       <c r="D83">
-        <v>-0.04009631468119394</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03327581288069289</v>
+      </c>
+      <c r="E83">
+        <v>0.02502528108660964</v>
+      </c>
+      <c r="F83">
+        <v>0.02327956083312344</v>
+      </c>
+      <c r="G83">
+        <v>0.0043132810077854</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0001740590688186512</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0004863289818075343</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0008125908190082745</v>
+      </c>
+      <c r="E84">
+        <v>0.003271269372921365</v>
+      </c>
+      <c r="F84">
+        <v>-0.001723335740967794</v>
+      </c>
+      <c r="G84">
+        <v>-0.0002777158092049942</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2195923580180602</v>
+        <v>0.2030157246575784</v>
       </c>
       <c r="C85">
-        <v>-0.0946365560561057</v>
+        <v>0.1108950899555448</v>
       </c>
       <c r="D85">
-        <v>0.1655353323949164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1287000654278192</v>
+      </c>
+      <c r="E85">
+        <v>-0.006944669841915392</v>
+      </c>
+      <c r="F85">
+        <v>-0.09880981480849167</v>
+      </c>
+      <c r="G85">
+        <v>-0.0136996664978347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01111417884069327</v>
+        <v>0.01439205807011567</v>
       </c>
       <c r="C86">
-        <v>-0.02854329928563888</v>
+        <v>0.01832027125773053</v>
       </c>
       <c r="D86">
-        <v>-0.0474610892389669</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06739148895253719</v>
+      </c>
+      <c r="E86">
+        <v>0.08074388971011283</v>
+      </c>
+      <c r="F86">
+        <v>0.0790789252133642</v>
+      </c>
+      <c r="G86">
+        <v>-0.0685534362308602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02992622324863454</v>
+        <v>0.02988185521912712</v>
       </c>
       <c r="C87">
-        <v>-0.001721918351812954</v>
+        <v>0.01294272977464809</v>
       </c>
       <c r="D87">
-        <v>-0.08539957104935446</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09010906438863331</v>
+      </c>
+      <c r="E87">
+        <v>0.1275113127811575</v>
+      </c>
+      <c r="F87">
+        <v>0.07242273274090139</v>
+      </c>
+      <c r="G87">
+        <v>0.006275691559822833</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1103930261629276</v>
+        <v>0.09422324972955941</v>
       </c>
       <c r="C88">
-        <v>-0.08314476242620786</v>
+        <v>0.06664325981521084</v>
       </c>
       <c r="D88">
-        <v>0.01296077717834797</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01635654794864037</v>
+      </c>
+      <c r="E88">
+        <v>0.05595821385067963</v>
+      </c>
+      <c r="F88">
+        <v>0.04292957624763167</v>
+      </c>
+      <c r="G88">
+        <v>-0.02975108954412573</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1756925693475605</v>
+        <v>0.2126046733297348</v>
       </c>
       <c r="C89">
-        <v>0.3800918610177182</v>
+        <v>-0.3838476421950057</v>
       </c>
       <c r="D89">
-        <v>0.03285116854352362</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01504245540805153</v>
+      </c>
+      <c r="E89">
+        <v>0.07760188480057108</v>
+      </c>
+      <c r="F89">
+        <v>0.08693119552186285</v>
+      </c>
+      <c r="G89">
+        <v>0.00532969020807825</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1695340701997657</v>
+        <v>0.1941231940635219</v>
       </c>
       <c r="C90">
-        <v>0.3344167746060381</v>
+        <v>-0.3116370453012351</v>
       </c>
       <c r="D90">
-        <v>0.04174547778349876</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01816975115251154</v>
+      </c>
+      <c r="E90">
+        <v>0.05590939021594377</v>
+      </c>
+      <c r="F90">
+        <v>0.02864894433234656</v>
+      </c>
+      <c r="G90">
+        <v>-0.01645797471224184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1888628961547494</v>
+        <v>0.1867600750083664</v>
       </c>
       <c r="C91">
-        <v>-0.1251465750781935</v>
+        <v>0.1402458052241106</v>
       </c>
       <c r="D91">
-        <v>0.1326830080434165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1279168137383408</v>
+      </c>
+      <c r="E91">
+        <v>0.0513505010647024</v>
+      </c>
+      <c r="F91">
+        <v>-0.01136833955109976</v>
+      </c>
+      <c r="G91">
+        <v>0.002187858422376941</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1603406180611196</v>
+        <v>0.1788879355233111</v>
       </c>
       <c r="C92">
-        <v>0.2942595710445504</v>
+        <v>-0.2977576531914923</v>
       </c>
       <c r="D92">
-        <v>0.02672587053139859</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01447216360342485</v>
+      </c>
+      <c r="E92">
+        <v>0.06667163739345643</v>
+      </c>
+      <c r="F92">
+        <v>0.05407724215338413</v>
+      </c>
+      <c r="G92">
+        <v>-0.02804503401272241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1878717367044657</v>
+        <v>0.2132216535410795</v>
       </c>
       <c r="C93">
-        <v>0.3374466564898708</v>
+        <v>-0.3207298717270393</v>
       </c>
       <c r="D93">
-        <v>0.04865567870625876</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02140373955107029</v>
+      </c>
+      <c r="E93">
+        <v>0.04229869099783419</v>
+      </c>
+      <c r="F93">
+        <v>0.002295163578543915</v>
+      </c>
+      <c r="G93">
+        <v>-0.03855531371901392</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3487696198663583</v>
+        <v>0.3471464692817046</v>
       </c>
       <c r="C94">
-        <v>-0.1331359155411009</v>
+        <v>0.1746502741727817</v>
       </c>
       <c r="D94">
-        <v>0.3862122994766516</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3991119042533318</v>
+      </c>
+      <c r="E94">
+        <v>-0.003142167951662232</v>
+      </c>
+      <c r="F94">
+        <v>-0.133981932137913</v>
+      </c>
+      <c r="G94">
+        <v>0.4334360396485432</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1251902138937699</v>
+        <v>0.09110893248488761</v>
       </c>
       <c r="C95">
-        <v>-0.04444921636488498</v>
+        <v>0.05362293751559147</v>
       </c>
       <c r="D95">
-        <v>-0.2265462769056491</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.201970837415442</v>
+      </c>
+      <c r="E95">
+        <v>-0.1533306102496383</v>
+      </c>
+      <c r="F95">
+        <v>0.7296906553989929</v>
+      </c>
+      <c r="G95">
+        <v>0.5283113991593967</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1905019101342862</v>
+        <v>0.1856073557172466</v>
       </c>
       <c r="C98">
-        <v>-0.02957271403044373</v>
+        <v>0.0478942516883247</v>
       </c>
       <c r="D98">
-        <v>-0.1721607417916907</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.2002089520553254</v>
+      </c>
+      <c r="E98">
+        <v>-0.1475903346531984</v>
+      </c>
+      <c r="F98">
+        <v>-0.08878140206887032</v>
+      </c>
+      <c r="G98">
+        <v>-0.07812278155694696</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007952607860028193</v>
+        <v>0.007637928023426277</v>
       </c>
       <c r="C101">
-        <v>-0.03263100139101657</v>
+        <v>0.02872119040903676</v>
       </c>
       <c r="D101">
-        <v>0.006294684989972306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02089554941332674</v>
+      </c>
+      <c r="E101">
+        <v>0.06258168814821194</v>
+      </c>
+      <c r="F101">
+        <v>0.06342357361761532</v>
+      </c>
+      <c r="G101">
+        <v>-0.08119338240606293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1216569747061572</v>
+        <v>0.1260524790661091</v>
       </c>
       <c r="C102">
-        <v>-0.06542121758772242</v>
+        <v>0.09658043250778973</v>
       </c>
       <c r="D102">
-        <v>0.04838085652304955</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05913335829164314</v>
+      </c>
+      <c r="E102">
+        <v>-0.01294318347031153</v>
+      </c>
+      <c r="F102">
+        <v>0.02310323511083928</v>
+      </c>
+      <c r="G102">
+        <v>0.005204517364213877</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
